--- a/results/mp/logistic/corona/confidence/42/masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="89">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,45 +43,48 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
+    <t>collapse</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -103,22 +106,19 @@
     <t>stop</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
-    <t>from</t>
+    <t>prices</t>
   </si>
   <si>
     <t>of</t>
   </si>
   <si>
-    <t>prices</t>
+    <t>are</t>
   </si>
   <si>
     <t>co</t>
@@ -127,163 +127,160 @@
     <t>19</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
-    <t>.</t>
+    <t>to</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
   <si>
     <t>and</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
     <t>,</t>
   </si>
   <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>in</t>
   </si>
 </sst>
 </file>
@@ -649,10 +646,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -710,13 +707,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -728,10 +725,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -760,13 +757,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8157894736842105</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -778,19 +775,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -802,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -810,13 +807,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8055555555555556</v>
+        <v>0.815068493150685</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -828,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -852,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -860,13 +857,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8047945205479452</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C6">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -878,19 +875,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K6">
-        <v>0.8611111111111112</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -902,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -910,13 +907,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7692307692307693</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -928,19 +925,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>0.8482142857142857</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -952,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -960,13 +957,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7586206896551724</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -978,31 +975,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8">
+        <v>0.8205128205128205</v>
+      </c>
+      <c r="L8">
+        <v>32</v>
+      </c>
+      <c r="M8">
+        <v>32</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>7</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8">
-        <v>0.8448275862068966</v>
-      </c>
-      <c r="L8">
-        <v>49</v>
-      </c>
-      <c r="M8">
-        <v>49</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1010,13 +1007,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7567567567567568</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1028,31 +1025,31 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9">
+        <v>0.8085106382978723</v>
+      </c>
+      <c r="L9">
+        <v>38</v>
+      </c>
+      <c r="M9">
+        <v>38</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>9</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9">
-        <v>0.8381201044386423</v>
-      </c>
-      <c r="L9">
-        <v>321</v>
-      </c>
-      <c r="M9">
-        <v>321</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1060,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7333333333333333</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1078,19 +1075,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1102,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1110,13 +1107,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5608465608465608</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C11">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1128,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>0.8076923076923077</v>
+        <v>0.7989556135770235</v>
       </c>
       <c r="L11">
-        <v>21</v>
+        <v>306</v>
       </c>
       <c r="M11">
-        <v>21</v>
+        <v>306</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1152,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1160,13 +1157,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5423728813559322</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1178,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>0.79375</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L12">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="M12">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1202,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1210,13 +1207,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5329457364341085</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C13">
-        <v>275</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>275</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1228,19 +1225,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>241</v>
+        <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.78125</v>
       </c>
       <c r="L13">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="M13">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1252,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1260,13 +1257,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5294117647058824</v>
+        <v>0.5368217054263565</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1278,19 +1275,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>24</v>
+        <v>239</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>0.7692307692307693</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1302,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1310,13 +1307,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4966442953020134</v>
+        <v>0.5343915343915344</v>
       </c>
       <c r="C15">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D15">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1328,19 +1325,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>0.7676056338028169</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L15">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="M15">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1352,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1360,13 +1357,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.475</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1378,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K16">
         <v>0.765625</v>
@@ -1410,13 +1407,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4533333333333333</v>
+        <v>0.4697986577181208</v>
       </c>
       <c r="C17">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D17">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1428,19 +1425,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K17">
-        <v>0.7641509433962265</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L17">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1452,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1460,13 +1457,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4181818181818182</v>
+        <v>0.4</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1478,19 +1475,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K18">
-        <v>0.7575757575757576</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M18">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1502,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1510,13 +1507,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4166666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="C19">
-        <v>150</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>150</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1528,19 +1525,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>210</v>
+        <v>33</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K19">
-        <v>0.7560975609756098</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="L19">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="M19">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1552,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1560,13 +1557,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4</v>
+        <v>0.3944444444444444</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1578,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K20">
-        <v>0.7446808510638298</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L20">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1602,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1610,13 +1607,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3928571428571428</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1631,16 +1628,16 @@
         <v>34</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21">
-        <v>0.7441860465116279</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1652,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1660,13 +1657,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3333333333333333</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C22">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1678,19 +1675,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K22">
-        <v>0.7291666666666666</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1702,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1710,13 +1707,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2857142857142857</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="C23">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="D23">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1728,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>180</v>
+        <v>64</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K23">
-        <v>0.7142857142857143</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1752,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1760,13 +1757,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2375</v>
+        <v>0.2658730158730159</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1778,19 +1775,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>61</v>
+        <v>185</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K24">
-        <v>0.6857142857142857</v>
+        <v>0.7</v>
       </c>
       <c r="L24">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1802,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1810,13 +1807,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1501340482573726</v>
+        <v>0.1742627345844504</v>
       </c>
       <c r="C25">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D25">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1828,19 +1825,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K25">
-        <v>0.6825396825396826</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L25">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M25">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1852,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1860,13 +1857,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="C26">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D26">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1878,19 +1875,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K26">
-        <v>0.6785714285714286</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="L26">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="M26">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1902,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1910,49 +1907,49 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.03054662379421222</v>
+        <v>0.02068965517241379</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D27">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E27">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
       <c r="F27">
-        <v>0.79</v>
+        <v>0.96</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>603</v>
+        <v>1136</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K27">
-        <v>0.675</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="M27">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1960,37 +1957,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01987315010570825</v>
+        <v>0.01815878378378378</v>
       </c>
       <c r="C28">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D28">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E28">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="F28">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>2318</v>
+        <v>2325</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K28">
-        <v>0.65</v>
+        <v>0.606694560669456</v>
       </c>
       <c r="L28">
-        <v>221</v>
+        <v>145</v>
       </c>
       <c r="M28">
-        <v>221</v>
+        <v>145</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2002,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>119</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2010,37 +2007,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01810344827586207</v>
+        <v>0.01586042823156225</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E29">
-        <v>0.05</v>
+        <v>0.58</v>
       </c>
       <c r="F29">
-        <v>0.95</v>
+        <v>0.42</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>1139</v>
+        <v>1241</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K29">
-        <v>0.6153846153846154</v>
+        <v>0.6</v>
       </c>
       <c r="L29">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M29">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2052,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2060,37 +2057,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0148578811369509</v>
+        <v>0.01484349790254921</v>
       </c>
       <c r="C30">
         <v>46</v>
       </c>
       <c r="D30">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E30">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="F30">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>3050</v>
+        <v>3053</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K30">
-        <v>0.5957446808510638</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L30">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M30">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2102,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2110,37 +2107,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0117096018735363</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="C31">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E31">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="F31">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>2110</v>
+        <v>2112</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K31">
-        <v>0.5899581589958159</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L31">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="M31">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2152,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>98</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2160,37 +2157,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01134380453752181</v>
+        <v>0.0106962663975782</v>
       </c>
       <c r="C32">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D32">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="E32">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="F32">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>2266</v>
+        <v>4902</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K32">
-        <v>0.5898305084745763</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L32">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="M32">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2202,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>121</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2210,37 +2207,37 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.008881711748082357</v>
+        <v>0.009154315605928508</v>
       </c>
       <c r="C33">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="E33">
-        <v>0.49</v>
+        <v>0.42</v>
       </c>
       <c r="F33">
-        <v>0.51</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>4910</v>
+        <v>2273</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K33">
-        <v>0.5757575757575758</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2252,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2260,37 +2257,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.008781977854142803</v>
+        <v>0.009097270818754374</v>
       </c>
       <c r="C34">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D34">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E34">
-        <v>0.7</v>
+        <v>0.51</v>
       </c>
       <c r="F34">
-        <v>0.3</v>
+        <v>0.49</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>2596</v>
+        <v>4248</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K34">
-        <v>0.5600000000000001</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L34">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2302,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2310,87 +2307,63 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.008390243902439025</v>
+        <v>0.007795751315533035</v>
       </c>
       <c r="C35">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D35">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E35">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="F35">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>5082</v>
+        <v>5091</v>
       </c>
       <c r="J35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K35">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="L35">
+        <v>20</v>
+      </c>
+      <c r="M35">
+        <v>20</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="J36" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K35">
-        <v>0.5571428571428572</v>
-      </c>
-      <c r="L35">
-        <v>39</v>
-      </c>
-      <c r="M35">
-        <v>39</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.007462686567164179</v>
-      </c>
-      <c r="C36">
-        <v>32</v>
-      </c>
-      <c r="D36">
-        <v>72</v>
-      </c>
-      <c r="E36">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="F36">
-        <v>0.4399999999999999</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>4256</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="K36">
-        <v>0.5168539325842697</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L36">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="M36">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2402,21 +2375,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="J37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K37">
-        <v>0.4901960784313725</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L37">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M37">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2428,21 +2401,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="J38" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K38">
-        <v>0.4666666666666667</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L38">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M38">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2454,21 +2427,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K39">
-        <v>0.4246575342465753</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L39">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M39">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2480,21 +2453,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K40">
-        <v>0.3508771929824561</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M40">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2506,21 +2479,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K41">
-        <v>0.3333333333333333</v>
+        <v>0.3125</v>
       </c>
       <c r="L41">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M41">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2532,293 +2505,293 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K42">
-        <v>0.1834862385321101</v>
+        <v>0.04602510460251046</v>
       </c>
       <c r="L42">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="M42">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>89</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K43">
-        <v>0.04090150250417363</v>
+        <v>0.04556354916067146</v>
       </c>
       <c r="L43">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="N43">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="O43">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>1149</v>
+        <v>398</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K44">
-        <v>0.02332657200811359</v>
+        <v>0.04021937842778794</v>
       </c>
       <c r="L44">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M44">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N44">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>963</v>
+        <v>525</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K45">
-        <v>0.02037735849056604</v>
+        <v>0.02206461780929866</v>
       </c>
       <c r="L45">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="M45">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="N45">
-        <v>0.7</v>
+        <v>0.58</v>
       </c>
       <c r="O45">
-        <v>0.3</v>
+        <v>0.42</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>2596</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K46">
-        <v>0.01799916282963583</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="L46">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M46">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="N46">
-        <v>0.9</v>
+        <v>0.76</v>
       </c>
       <c r="O46">
-        <v>0.09999999999999998</v>
+        <v>0.24</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>2346</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K47">
-        <v>0.01389766266582438</v>
+        <v>0.01590623691921306</v>
       </c>
       <c r="L47">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M47">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="N47">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="O47">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>1561</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K48">
-        <v>0.01070399341292713</v>
+        <v>0.01503759398496241</v>
       </c>
       <c r="L48">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M48">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="N48">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
       <c r="O48">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>2403</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K49">
-        <v>0.01066499372647428</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="L49">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M49">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="N49">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
       <c r="O49">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>3154</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K50">
-        <v>0.009324009324009324</v>
+        <v>0.01005340873389884</v>
       </c>
       <c r="L50">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M50">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="N50">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="O50">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>2125</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K51">
+        <v>0.009559337840988575</v>
+      </c>
+      <c r="L51">
         <v>41</v>
       </c>
-      <c r="K51">
-        <v>0.00931098696461825</v>
-      </c>
-      <c r="L51">
-        <v>40</v>
-      </c>
       <c r="M51">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="N51">
-        <v>0.5600000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="O51">
-        <v>0.4399999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>4256</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K52">
-        <v>0.008481421647819063</v>
+        <v>0.008294557960752579</v>
       </c>
       <c r="L52">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M52">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="N52">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="O52">
-        <v>0.51</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>4910</v>
+        <v>4902</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2826,25 +2799,25 @@
         <v>40</v>
       </c>
       <c r="K53">
-        <v>0.007809449433814916</v>
+        <v>0.006634146341463414</v>
       </c>
       <c r="L53">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M53">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="N53">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="O53">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>5082</v>
+        <v>5091</v>
       </c>
     </row>
   </sheetData>
